--- a/data/trans_camb/P15_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_1-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,96</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,62</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,35</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>11,29</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>23,2</t>
+          <t>10,67</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,25</t>
+          <t>1,72; 9,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 22,25</t>
+          <t>7,61; 19,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 36,44</t>
+          <t>-1,1; 2,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,8</t>
+          <t>3,02; 10,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,04</t>
+          <t>4,66; 13,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 13,92</t>
+          <t>-0,26; 2,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,68; 27,45</t>
+          <t>3,08; 8,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,12</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 7,53</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>7,89; 16,18</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>17,95; 30,27</t>
+          <t>7,15; 14,67</t>
         </is>
       </c>
     </row>
@@ -807,47 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>1152,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1085,67%</t>
+          <t>1613,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1601,56%</t>
+          <t>188,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3606,93%</t>
+          <t>2065,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184,07%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1892,07%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4434,45%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9115,07%</t>
+          <t>4197,11%</t>
         </is>
       </c>
     </row>
@@ -903,21 +834,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,9</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,87</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>23,43</t>
+          <t>7,93</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,09</t>
+          <t>-1,16; 1,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,01</t>
+          <t>-0,55; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 13,36</t>
+          <t>4,44; 12,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 34,54</t>
+          <t>-1,93; 1,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,08</t>
+          <t>-0,74; 4,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,18</t>
+          <t>4,29; 12,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 12,0</t>
+          <t>-1,26; 1,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 28,7</t>
+          <t>-0,07; 3,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,86</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 3,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 11,26</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>18,29; 28,89</t>
+          <t>5,29; 11,02</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>229,23%</t>
+          <t>230,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1598,22%</t>
+          <t>1494,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4645,78%</t>
+          <t>-38,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-44,58%</t>
+          <t>161,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>171,86%</t>
+          <t>821,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>821,93%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2288,81%</t>
+          <t>187,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-28,72%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>192,98%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1116,17%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>3178,37%</t>
+          <t>1075,98%</t>
         </is>
       </c>
     </row>
@@ -1156,42 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>98,45; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,09; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>513,25; —</t>
+          <t>-46,62; 1190,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-35,51; 1313,95</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>308,85; 4790,63</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>1110,38; 14295,75</t>
+          <t>296,15; 4246,93</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,63</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>8,68</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>19,33</t>
+          <t>8,66</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,72</t>
+          <t>-0,75; 1,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,0</t>
+          <t>0,61; 4,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,78</t>
+          <t>5,53; 12,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,65; 23,31</t>
+          <t>-2,56; 0,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; -0,07</t>
+          <t>0,57; 4,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,39</t>
+          <t>5,73; 12,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,71</t>
+          <t>-1,53; 0,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 27,33</t>
+          <t>0,99; 4,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,19</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 4,4</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 11,03</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>16,01; 23,08</t>
+          <t>6,38; 11,28</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>648,6%</t>
+          <t>629,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2298,07%</t>
+          <t>2322,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4806,93%</t>
+          <t>-79,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-81,42%</t>
+          <t>183,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>204,77%</t>
+          <t>642,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>651,32%</t>
+          <t>-62,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1557,69%</t>
+          <t>274,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-66,06%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>295,43%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>984,99%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2193,07%</t>
+          <t>982,87%</t>
         </is>
       </c>
     </row>
@@ -1432,42 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 730,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,35; 827,35</t>
+          <t>201,68; 2081,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>233,74; 1932,99</t>
+          <t>-100,0; 220,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>593,69; 4571,78</t>
+          <t>43,28; 845,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 220,89</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>50,15; 956,89</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>359,81; 2642,16</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1007,18; 5928,15</t>
+          <t>355,09; 2518,17</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,36</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,17</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>20,21</t>
+          <t>10,25</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,31</t>
+          <t>1,42; 5,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,7</t>
+          <t>6,54; 13,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,04; 28,49</t>
+          <t>-1,93; 1,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,65</t>
+          <t>0,42; 5,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,8</t>
+          <t>7,6; 14,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,84; 14,94</t>
+          <t>-0,63; 1,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,46; 24,54</t>
+          <t>1,34; 4,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,36</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 4,32</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 13,4</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,47; 24,42</t>
+          <t>8,24; 13,08</t>
         </is>
       </c>
     </row>
@@ -1635,47 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,71%</t>
+          <t>172,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>177,03%</t>
+          <t>795,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>798,28%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1362,42%</t>
+          <t>371,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>374,63%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>1447,3%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>2754,11%</t>
+          <t>1397,56%</t>
         </is>
       </c>
     </row>
@@ -1703,47 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,51; 370,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 907,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 809,3</t>
+          <t>272,17; 2551,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>273,13; 2584,23</t>
+          <t>-64,55; 449,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>482,14; 4085,26</t>
+          <t>86,97; 1282,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,79; 427,08</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>81,79; 1364,18</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>588,42; 4254,85</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>1158,99; 7862,18</t>
+          <t>562,5; 4056,64</t>
         </is>
       </c>
     </row>
@@ -1765,57 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,37</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>3,82</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>18,5</t>
+          <t>6,44</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,32</t>
+          <t>1,43; 5,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,61</t>
+          <t>4,92; 11,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,91; 28,91</t>
+          <t>-1,99; 1,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,59</t>
+          <t>1,82; 8,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,43</t>
+          <t>2,55; 8,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 8,9</t>
+          <t>-0,81; 1,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,49; 20,68</t>
+          <t>2,17; 5,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,03</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 5,8</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 9,3</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>14,92; 22,63</t>
+          <t>4,43; 8,92</t>
         </is>
       </c>
     </row>
@@ -1911,47 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,17%</t>
+          <t>532,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>540,75%</t>
+          <t>592,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>614,57%</t>
+          <t>45,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1670,29%</t>
+          <t>862,03%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>864,42%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>1478,68%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>4181,49%</t>
+          <t>1455,07%</t>
         </is>
       </c>
     </row>
@@ -1984,42 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,28; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>23,14; —</t>
+          <t>56,88; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,97; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>335,63; —</t>
+          <t>128,66; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>126,37; —</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>317,46; —</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>1076,14; —</t>
+          <t>272,77; —</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>7,5</t>
+          <t>3,15</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,48</t>
+          <t>-0,8; 2,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,72</t>
+          <t>-0,46; 3,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,8</t>
+          <t>-0,34; 4,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,53; 19,45</t>
+          <t>-2,17; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,0</t>
+          <t>0,44; 4,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,26</t>
+          <t>2,13; 8,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,86; 8,39</t>
+          <t>-0,98; 0,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,65; 9,39</t>
+          <t>0,54; 3,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,63</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 3,48</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 5,36</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 11,11</t>
+          <t>1,45; 5,35</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>110,15%</t>
+          <t>131,4%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>260,94%</t>
+          <t>286,65%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>297,86%</t>
+          <t>293,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2932,2%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>360,16%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>367,56%</t>
+          <t>718,73%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>724,71%</t>
+          <t>-21,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>564,89%</t>
+          <t>334,31%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-28,17%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>330,47%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>576,89%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>1357,99%</t>
+          <t>570,59%</t>
         </is>
       </c>
     </row>
@@ -2260,42 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,08; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,84; —</t>
+          <t>50,02; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>41,7; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-77,69; —</t>
+          <t>10,27; 1901,19</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 1691,11</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>74,83; 2388,06</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>248,8; 4957,69</t>
+          <t>75,94; 2463,13</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>18,37</t>
+          <t>7,86</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 0,91</t>
+          <t>-0,07; 0,95</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,47</t>
+          <t>1,65; 3,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,01</t>
+          <t>6,44; 9,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,72</t>
+          <t>-1,05; 0,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,2</t>
+          <t>2,21; 4,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,35</t>
+          <t>6,42; 9,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,45</t>
+          <t>-0,38; 0,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>13,79; 18,44</t>
+          <t>2,19; 3,56</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,35</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 3,61</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 9,17</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>16,69; 20,3</t>
+          <t>6,77; 8,92</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>165,22%</t>
+          <t>183,97%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1053,55%</t>
+          <t>1096,46%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3665,72%</t>
+          <t>3489,77%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>9102,69%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-43,46%</t>
+          <t>316,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>320,54%</t>
+          <t>779,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>784,99%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1608,23%</t>
+          <t>455,51%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>451,41%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>1299,31%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>2952,58%</t>
+          <t>1263,13%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 966,25</t>
+          <t>-46,89; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>290,09; 4480,05</t>
+          <t>288,84; 4558,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1331,96; 13119,46</t>
+          <t>1046,62; 12654,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2957,36; 30696,16</t>
+          <t>-77,82; 43,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-78,72; 30,92</t>
+          <t>154,44; 677,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>156,78; 668,66</t>
+          <t>473,66; 1496,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>452,45; 1419,07</t>
+          <t>-48,32; 104,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>987,85; 2931,21</t>
+          <t>254,85; 803,94</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-54,18; 84,77</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>249,96; 878,66</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>796,16; 2134,5</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>1880,07; 4889,29</t>
+          <t>776,45; 2098,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
